--- a/MavenProject1/data/ChartsPage.xlsx
+++ b/MavenProject1/data/ChartsPage.xlsx
@@ -59,7 +59,7 @@
     <t>fileWithPath</t>
   </si>
   <si>
-    <t>C:\Users\sselvarasux\Desktop\screenshot\Chart.png</t>
+    <t>\\sselvarasuw8\screenshot\charts.png</t>
   </si>
 </sst>
 </file>
@@ -447,13 +447,14 @@
       <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" location="/login"/>
+    <hyperlink ref="F2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
